--- a/afaqytestdata.xlsx
+++ b/afaqytestdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3absattar\eclipse-workspace\AfaqyTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3absattar\Documents\afaqy-test-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94913396-41E7-4DAE-AF86-5225B7A7924D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93849FD4-C965-4891-BD24-7EA866296B3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
     <t>test3qweasd@gmail.com</t>
   </si>
   <si>
-    <t>testqwqasdqwe1@gmail.com</t>
+    <t>testqwqaspoiwe1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
